--- a/flows/OILU_fund_flow_data.xlsx
+++ b/flows/OILU_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1385"/>
+  <dimension ref="A1:B1404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14285,6 +14285,196 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B1403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="B1404" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
